--- a/非线性 Contours 匹配带宽 问题.xlsx
+++ b/非线性 Contours 匹配带宽 问题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CtoD\Default\桌面\Code\Python\Vscode\5.NL_AST\4_引入折射率分布_早期代码\3.尝试 gitee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449916E5-319F-485B-BB65-D2F1E32FEE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB446FD-18A1-48ED-863A-6D92B58E1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36480" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="465" windowWidth="36690" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>飞秒谱宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>但图大了，高频分量更多，基波球可以更左移，Gz_max 可以更大，Tz_min 可以更小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dk = -1.0967030189147218 / μm, -10.846513373881862</t>
   </si>
   <si>
@@ -414,6 +410,26 @@
   </si>
   <si>
     <t>相对上限 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k2_z_min = 28.133735807159653 / μm, k1_z_min = 13.512948125191658 / μm</t>
+  </si>
+  <si>
+    <t>k2_z_min = 28.13102003708156 / μm, k1_z_min = 13.507293026130254 / μm</t>
+  </si>
+  <si>
+    <t>k2_z_min = 28.118515077263698 / μm, k1_z_min = 13.481230163355606 / μm</t>
+  </si>
+  <si>
+    <t>k2_z_min = 27.98083912448911 / μm, k1_z_min = 13.191665348908893 / μm</t>
+  </si>
+  <si>
+    <t>但图大了，高频分量的 kx,ky 的 max 更大：倒空间视场更大，但倒空间相对位置不变（所以 高频分量 的 振幅 会更小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kz_min 更小，Gz_max 可以更大，基波球可以更右移；Tz_min 可以更小，晶体厚度可以更薄，但亮度就更暗：所匹配的高频分量本身 傅立叶振幅 就不高，而该频率以下的又失配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1117,12 @@
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1118,10 +1139,10 @@
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
@@ -1133,7 +1154,7 @@
         <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1162,10 +1183,10 @@
         <v>53</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1196,6 +1217,9 @@
       <c r="M13" t="s">
         <v>54</v>
       </c>
+      <c r="V13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
@@ -1255,7 +1279,7 @@
         <v>50</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1290,7 +1314,7 @@
         <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -1305,6 +1329,9 @@
       <c r="M17" t="s">
         <v>48</v>
       </c>
+      <c r="V17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
@@ -1335,7 +1362,7 @@
         <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
@@ -1346,12 +1373,15 @@
         <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
@@ -1368,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -1382,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="V24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
@@ -1392,6 +1422,9 @@
       <c r="M25" t="s">
         <v>38</v>
       </c>
+      <c r="V25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>

--- a/非线性 Contours 匹配带宽 问题.xlsx
+++ b/非线性 Contours 匹配带宽 问题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CtoD\Default\桌面\Code\Python\Vscode\5.NL_AST\4_引入折射率分布_早期代码\3.尝试 gitee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB446FD-18A1-48ED-863A-6D92B58E1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2DF0F-A20C-4936-A7BC-E9B2297E384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="465" windowWidth="36690" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="36690" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
